--- a/Output/ZestawienieSprzedazyAllegro.xlsx
+++ b/Output/ZestawienieSprzedazyAllegro.xlsx
@@ -14,21 +14,1116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="370">
+  <si>
+    <t>Id zamówienia</t>
+  </si>
+  <si>
+    <t>Data zamówienia</t>
+  </si>
+  <si>
+    <t>Wystawił</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko kupującego</t>
+  </si>
+  <si>
+    <t>Adres kupującego</t>
+  </si>
+  <si>
+    <t>Wartość netto</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Wartość brutto</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>Bartłomiej Olech</t>
+  </si>
+  <si>
+    <t>Marta Pudlik</t>
+  </si>
+  <si>
+    <t>Kurierow armii krajowej 17a/3 80-041 Gdansk</t>
+  </si>
+  <si>
+    <t>23 %</t>
+  </si>
+  <si>
+    <t>Dariusz Dyczka</t>
+  </si>
+  <si>
+    <t>ul.Stolarska 20/10 43-190 Mikołów</t>
+  </si>
+  <si>
+    <t>Sebastian Kurz</t>
+  </si>
+  <si>
+    <t>Topolowa 39 78-220 Tychowo</t>
+  </si>
+  <si>
+    <t>Gerta Galkowska</t>
+  </si>
+  <si>
+    <t>Ul Sloneczna 41 D 05-205 Stary Kraszew</t>
+  </si>
+  <si>
+    <t>Katarzyna Miterska</t>
+  </si>
+  <si>
+    <t>Warszawska 43/190 05-820 Piastów</t>
+  </si>
+  <si>
+    <t>Izabella Sobaniak</t>
+  </si>
+  <si>
+    <t>Skawica 619 34-221 Skawica</t>
+  </si>
+  <si>
+    <t>Aleksandra Gertych</t>
+  </si>
+  <si>
+    <t>Altanowa 3/15 85-790 Bydgoszcz</t>
+  </si>
+  <si>
+    <t>Krzysztof Korcz</t>
+  </si>
+  <si>
+    <t>Wiosenna 85 52-200 Karwiany</t>
+  </si>
+  <si>
+    <t>Grzegorz Górnik</t>
+  </si>
+  <si>
+    <t>Słowicza 11 87-800 Włocławek</t>
+  </si>
+  <si>
+    <t>Natalia Fabianowska</t>
+  </si>
+  <si>
+    <t>Legionowa 98B/2 05-270 Marki</t>
+  </si>
+  <si>
+    <t>Sylwia Mrozowska</t>
+  </si>
+  <si>
+    <t>Staniowice 10 28-305 Sobków</t>
+  </si>
+  <si>
+    <t>Dariusz Kedziora</t>
+  </si>
+  <si>
+    <t>Libijska 10b 03-977 Warszawa</t>
+  </si>
+  <si>
+    <t>Michał Mysłek</t>
+  </si>
+  <si>
+    <t>Elizy Orzeszkowej 1/34 39-400 Tarnobrzeg</t>
+  </si>
+  <si>
+    <t>Wojciech Kramarz</t>
+  </si>
+  <si>
+    <t>Sikorskiego 2/25 39-200 Dębica</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>Barbara Maciejewska</t>
+  </si>
+  <si>
+    <t>Armii Krajowej 2c/4 83-110 Tczew</t>
+  </si>
+  <si>
+    <t>Michał Stankowski</t>
+  </si>
+  <si>
+    <t>Brzozowa 13 42-300 Myszków</t>
+  </si>
+  <si>
+    <t>Artur Sienkiewicz</t>
+  </si>
+  <si>
+    <t>Kolejowa 15 11-049 Dobre Miasto</t>
+  </si>
+  <si>
+    <t>Gabriela Komiazyk</t>
+  </si>
+  <si>
+    <t>Bat.Chłopskich 55/1 70-770 Szczecin</t>
+  </si>
+  <si>
+    <t>Martyna Altewęgier</t>
+  </si>
+  <si>
+    <t>Bałtycka 50 05-825 Grodzisk Mazowiecki</t>
+  </si>
+  <si>
+    <t>Janusz Poński</t>
+  </si>
+  <si>
+    <t>Żeromskiego, 19A 27-600 Sandomierz</t>
+  </si>
+  <si>
+    <t>Monika Budnik</t>
+  </si>
+  <si>
+    <t>Grunwaldzka 2A 82-103 Stegna</t>
+  </si>
+  <si>
+    <t>Sandra Raszkowska</t>
+  </si>
+  <si>
+    <t>Jaszowiecka 14/93 01-001 Warszawa</t>
+  </si>
+  <si>
+    <t>Arkadiusz Daszkiewicz</t>
+  </si>
+  <si>
+    <t>Bukowiec 122c/5 66-300 Miedzyrzecz</t>
+  </si>
+  <si>
+    <t>KASIA KALBARCZYK</t>
+  </si>
+  <si>
+    <t>SOJOWA18 \ 2 81-589 GDYNIA</t>
+  </si>
+  <si>
+    <t>Dawid Miniajluk</t>
+  </si>
+  <si>
+    <t>ul Dluga 22b 58-116 Nowizna</t>
+  </si>
+  <si>
+    <t>Robert Tchorzewski</t>
+  </si>
+  <si>
+    <t>ul, Zacisze 12 F 62-200 Gniezno</t>
+  </si>
+  <si>
+    <t>Waldemar Feliksiak</t>
+  </si>
+  <si>
+    <t>Wybudowanie, 34 64-600 Oborniki</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>Zuzanna Lorenc</t>
+  </si>
+  <si>
+    <t>Wawelska 1 64-360 Przyprostynia</t>
+  </si>
+  <si>
+    <t>Józef Miniajluk</t>
+  </si>
+  <si>
+    <t>Ogrodowa 10 57-362 Krosnowice</t>
+  </si>
+  <si>
+    <t>Dariusz Majewski</t>
+  </si>
+  <si>
+    <t>Kłaj 113 32-015 Kłaj</t>
+  </si>
+  <si>
+    <t>Janusz Pacan</t>
+  </si>
+  <si>
+    <t>Krzczonów 107 26-340 Drzewica</t>
+  </si>
+  <si>
+    <t>Mateusz Szczyciński</t>
+  </si>
+  <si>
+    <t>Karolinki 44 05-500 PIASECZNO</t>
+  </si>
+  <si>
+    <t>Mariusz Zwoliński</t>
+  </si>
+  <si>
+    <t>Przesławice 29 32-104 Przesławice</t>
+  </si>
+  <si>
+    <t>Ihar Papou</t>
+  </si>
+  <si>
+    <t>Aleja Niepodległości 71 02-626 Warszawa</t>
+  </si>
+  <si>
+    <t>Katarzyna Orlicka</t>
+  </si>
+  <si>
+    <t>Dąbrowskiego 71/3 32-600 Oświęcim</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>Bartosz Rudzionek</t>
+  </si>
+  <si>
+    <t>Ogrodowa 84 72-003 Wołczkowo</t>
+  </si>
+  <si>
+    <t>JONATAN SZYCHOWIAK</t>
+  </si>
+  <si>
+    <t>Sulbiny Górna 28 08-400 GARWOLIN</t>
+  </si>
+  <si>
+    <t>Olga Więsek</t>
+  </si>
+  <si>
+    <t>Gołębna 3 21-413 Serokomla</t>
+  </si>
+  <si>
+    <t>Małgorzata Demska</t>
+  </si>
+  <si>
+    <t>Ropuchy  7B 83-130 Pelplin</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>Damian Szymaniak</t>
+  </si>
+  <si>
+    <t>Ogrodowa 20 05-530 Dobiesz</t>
+  </si>
+  <si>
+    <t>Patrycja Biedrzycka</t>
+  </si>
+  <si>
+    <t>Słoneczna 14 97-225 Ujazd</t>
+  </si>
+  <si>
+    <t>ewa franczuk</t>
+  </si>
+  <si>
+    <t>Ul. Ofiar Grudnia 1970 nr 7 84-200 Wejherowo</t>
+  </si>
+  <si>
+    <t>Aneta Kurpiewska</t>
+  </si>
+  <si>
+    <t>Stanisławowo 21 18-416 Zbójna</t>
+  </si>
+  <si>
+    <t>Monika Wąchała</t>
+  </si>
+  <si>
+    <t>Jeżyce 33 a 76-150 Darłowo</t>
+  </si>
+  <si>
+    <t>Emilia Stańczuk</t>
+  </si>
+  <si>
+    <t>Jana Olbrachta 58 m. 36 01-111 Warszawa</t>
+  </si>
+  <si>
+    <t>Krzysztof Marsolek</t>
+  </si>
+  <si>
+    <t>Kwiatowa 4 46-024 Brynica</t>
+  </si>
+  <si>
+    <t>Roksana Janicka</t>
+  </si>
+  <si>
+    <t>SŁOWIAŃSKA, 28, 8 93-101 ŁÓDŹ</t>
+  </si>
+  <si>
+    <t>Paweł Kozaczuk</t>
+  </si>
+  <si>
+    <t>Pawia 9/146 05-500 Piaseczno</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>Patrycja Nowak</t>
+  </si>
+  <si>
+    <t>Żółkiewskiego 5/175 27-600 Sandomierz</t>
+  </si>
+  <si>
+    <t>Mieczysław Jagodzinski</t>
+  </si>
+  <si>
+    <t>Pustowójtówny 5B 28-366 Małogoszcz</t>
+  </si>
+  <si>
+    <t>Dawid Rozonka</t>
+  </si>
+  <si>
+    <t>Leśna 4/3 89-333 Osiek Nad Notecią</t>
+  </si>
+  <si>
+    <t>Katarzyna Przybylska</t>
+  </si>
+  <si>
+    <t>ul.Wierzbięcice 41/5 61-558 Poznań</t>
+  </si>
+  <si>
+    <t>Anna Deptuła</t>
+  </si>
+  <si>
+    <t>Beskidzka 144 Trzebinia 34-300 Żywiec</t>
+  </si>
+  <si>
+    <t>Mateusz Chrzanowski</t>
+  </si>
+  <si>
+    <t>Dziemięrzyce 42 32-222 Racławice</t>
+  </si>
+  <si>
+    <t>Iwona Rajfura</t>
+  </si>
+  <si>
+    <t>Żołnierza Polskiego 15 41-902 Bytom</t>
+  </si>
+  <si>
+    <t>Łukasz Rybicki</t>
+  </si>
+  <si>
+    <t>Barona 11L/1 46-020 Opole</t>
+  </si>
+  <si>
+    <t>Adam Kowolik</t>
+  </si>
+  <si>
+    <t>Podhalańska 9/150 41-907 Bytom</t>
+  </si>
+  <si>
+    <t>Jacek Wywiał</t>
+  </si>
+  <si>
+    <t>Jażwiny 13 55-100 Trzebnica</t>
+  </si>
+  <si>
+    <t>Czesława Cebulak</t>
+  </si>
+  <si>
+    <t>Agatowa 2/3 58-150 STRZEGOM</t>
+  </si>
+  <si>
+    <t>Hubert Jeznach</t>
+  </si>
+  <si>
+    <t>Wysoka 6 08-300 Sokołów Podlaski</t>
+  </si>
+  <si>
+    <t>Magdalena Burkowska</t>
+  </si>
+  <si>
+    <t>Gawędy 1/7 85-792 Bydgoszcz</t>
+  </si>
+  <si>
+    <t>Tomasz Lesny</t>
+  </si>
+  <si>
+    <t>Rokiciny Podhalanskie165 34-721 Rokiciny Podhalanskie</t>
+  </si>
+  <si>
+    <t>Tomasz Matysik</t>
+  </si>
+  <si>
+    <t>Unii Lubelskiej 23 71-252 Szczecin</t>
+  </si>
+  <si>
+    <t>Bożena Balonis</t>
+  </si>
+  <si>
+    <t>Żwirki i Wigury 1/24 78-301 Świdwin</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>Monika Wawrzyn</t>
+  </si>
+  <si>
+    <t>Prosta 30 42-262 Poczesna</t>
+  </si>
+  <si>
+    <t>Sylwia Grudzień</t>
+  </si>
+  <si>
+    <t>Norwida30 A 86-300 GRUDZIĄDZ</t>
+  </si>
+  <si>
+    <t>Kamil Głuch</t>
+  </si>
+  <si>
+    <t>Teofila Piecyka 20/23 03-673 Warszawa</t>
+  </si>
+  <si>
+    <t>Elzbieta Kośnik</t>
+  </si>
+  <si>
+    <t>Chylińska 255/47 81-016 Gdynia</t>
+  </si>
+  <si>
+    <t>Jerzy Czajkowski</t>
+  </si>
+  <si>
+    <t>Borkowska 3/24 30-438 Kraków</t>
+  </si>
+  <si>
+    <t>Iwona Pawlak</t>
+  </si>
+  <si>
+    <t>Rynek, 16 63-604 Baranów</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>Patrycja Koperna</t>
+  </si>
+  <si>
+    <t>Głogowska 4/5 59-140 Chocianów</t>
+  </si>
+  <si>
+    <t>Mateusz Syktus</t>
+  </si>
+  <si>
+    <t>Reja, 6 69-113 Górzyca</t>
+  </si>
+  <si>
+    <t>Aleksandra Gorczyńska</t>
+  </si>
+  <si>
+    <t>Andersena 6/26 01-911 Warszawa</t>
+  </si>
+  <si>
+    <t>rafal kubal</t>
+  </si>
+  <si>
+    <t>Chabielice 3c 97-421 Chabielice</t>
+  </si>
+  <si>
+    <t>Anna Dyrkacz</t>
+  </si>
+  <si>
+    <t>Wyspiańskiego 55/3 38-500 Sanok</t>
+  </si>
+  <si>
+    <t>PAULINA NOWACKA</t>
+  </si>
+  <si>
+    <t>Tymiankowa 7/1 62-064 Plewiska</t>
+  </si>
+  <si>
+    <t>Anna Kwiatkowska</t>
+  </si>
+  <si>
+    <t>Ul. Wiosny Ludów 61 64-920 Piła</t>
+  </si>
+  <si>
+    <t>Marta Kuprasz</t>
+  </si>
+  <si>
+    <t>Ul.Makowa 2 L 87-162 Krobia</t>
+  </si>
+  <si>
+    <t>Olga Rochowiak</t>
+  </si>
+  <si>
+    <t>Cicha 5 32-052 Radziszów</t>
+  </si>
+  <si>
+    <t>Bartek Waryszak</t>
+  </si>
+  <si>
+    <t>9 stara wies 22-530 Mircze</t>
+  </si>
+  <si>
+    <t>Michał Bodynek</t>
+  </si>
+  <si>
+    <t>Żwirki i Wigury 31A/6 43-190 Mikołów</t>
+  </si>
+  <si>
+    <t>Magdalena Barej</t>
+  </si>
+  <si>
+    <t>Kąpieliskowa 9B 22-100 Chełm</t>
+  </si>
+  <si>
+    <t>Juliusz Kwidziński</t>
+  </si>
+  <si>
+    <t>Derdowskiego 21 a 84-200 Wejherowo</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>ewa kucharska</t>
+  </si>
+  <si>
+    <t>Wyzwolenia 60/7 71-506 Szczecin</t>
+  </si>
+  <si>
+    <t>Urszula Niemiec</t>
+  </si>
+  <si>
+    <t>Sokoła 2/11 41-902 Bytom</t>
+  </si>
+  <si>
+    <t>Tetiana Arsibekova</t>
+  </si>
+  <si>
+    <t>Jana Amosa Komińskiego 41 54-514 Wrocław</t>
+  </si>
+  <si>
+    <t>Dariusz Waszkiewicz</t>
+  </si>
+  <si>
+    <t>Lwowska 64/7 34-100 Wadowice</t>
+  </si>
+  <si>
+    <t>Stanisław Łyda</t>
+  </si>
+  <si>
+    <t>Kozielska 150 44-100 Gliwice</t>
+  </si>
+  <si>
+    <t>Katarzyna Orszulik</t>
+  </si>
+  <si>
+    <t>Żorska 195 44-203 Rybnik</t>
+  </si>
+  <si>
+    <t>Mirosław  Matras</t>
+  </si>
+  <si>
+    <t>Grodeckiego 135 32-700 Bochnia</t>
+  </si>
+  <si>
+    <t>Maciej Rudnicki</t>
+  </si>
+  <si>
+    <t>Chwarznieńska 198G 81-602 Gdynia</t>
+  </si>
+  <si>
+    <t>Irena Kleber</t>
+  </si>
+  <si>
+    <t>Księdza Kujawskiego 50 87-222 Książki</t>
+  </si>
+  <si>
+    <t>Sebastian Garwol</t>
+  </si>
+  <si>
+    <t>Ul: Tadeusza Różewicza 93 58-309 Wałbrzych</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>Łukasz Dutkiewicz</t>
+  </si>
+  <si>
+    <t>Małachowskiego 11/25 41-907 Bytom</t>
+  </si>
+  <si>
+    <t>Katarzyna Motak</t>
+  </si>
+  <si>
+    <t>Uk. Beskidzka 41/16 30-611 Kraków</t>
+  </si>
+  <si>
+    <t>Dominik Jakubowski</t>
+  </si>
+  <si>
+    <t>Jesionowa 15/2 85-149 Bydgoszcz</t>
+  </si>
+  <si>
+    <t>Agnieszka Miszk</t>
+  </si>
+  <si>
+    <t>Tatarczana 3A /17 81-591 Gdynia</t>
+  </si>
+  <si>
+    <t>wiesław brzeziński</t>
+  </si>
+  <si>
+    <t>os.stare żegrze 75/10 61-249 Poznań</t>
+  </si>
+  <si>
+    <t>Marcin Milewski</t>
+  </si>
+  <si>
+    <t>ul.Bohaterow Getta 2a/25 67-100 Nowa Sol</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>Agnieszka Pietrzak</t>
+  </si>
+  <si>
+    <t>ul. Naramowicka 206 61-611 Poznań</t>
+  </si>
+  <si>
+    <t>Michał Pawlak</t>
+  </si>
+  <si>
+    <t>Milinów 5 62-710 Władysławów</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>Grzegorz Rogowski</t>
+  </si>
+  <si>
+    <t>Kaczyńska 2 62-010 Pobiedziska</t>
+  </si>
+  <si>
+    <t>Witold Szmukała</t>
+  </si>
+  <si>
+    <t>Rodziewiczówny 16 84-230 Rumia</t>
+  </si>
+  <si>
+    <t>JANUSZ JACHIMECKI</t>
+  </si>
+  <si>
+    <t>ROLNICZA 16/5 59-220 LEGNICA</t>
+  </si>
+  <si>
+    <t>Wiaczesław Danilov</t>
+  </si>
+  <si>
+    <t>Kupiecka 2-4/90 78-100 Kołobrzeg</t>
+  </si>
+  <si>
+    <t>Miroslaw Szczerba</t>
+  </si>
+  <si>
+    <t>Jagodowa 12 38-300 Gorlice</t>
+  </si>
+  <si>
+    <t>Sylwia Majorczyk</t>
+  </si>
+  <si>
+    <t>Szkolna 1E 62-080 Tarnowo Podgórne</t>
+  </si>
+  <si>
+    <t>Marcin Feliksik</t>
+  </si>
+  <si>
+    <t>Łukowa 29 43-210 Kobiór</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>Agnieszka Mendel</t>
+  </si>
+  <si>
+    <t>ul Tetmajera 27 34-500 Zakopane</t>
+  </si>
+  <si>
+    <t>Magdalena Marciniak</t>
+  </si>
+  <si>
+    <t>Bernardyńska 3/6 64-000 Kościan</t>
+  </si>
+  <si>
+    <t>Danuta Bajur</t>
+  </si>
+  <si>
+    <t>Gościszewo 18B 82-400 Gościszewo</t>
+  </si>
+  <si>
+    <t>Nikola Śnieżek</t>
+  </si>
+  <si>
+    <t>Dąbrowa, 6 32-500 Luszowice</t>
+  </si>
+  <si>
+    <t>Anna Ćwik</t>
+  </si>
+  <si>
+    <t>Nad Potokiem 63 32-050 Borek Szlachecki</t>
+  </si>
+  <si>
+    <t>Beata Mrozicka</t>
+  </si>
+  <si>
+    <t>Długie Ogrody 30d/32 80-765 Gdańsk</t>
+  </si>
+  <si>
+    <t>Agnieszka Zielińska</t>
+  </si>
+  <si>
+    <t>Radonice 7c 05-870 Błonie</t>
+  </si>
+  <si>
+    <t>Kamil Cichocki</t>
+  </si>
+  <si>
+    <t>Józefów, 22 96-230 Biała Rawska</t>
+  </si>
+  <si>
+    <t>Ewa Soszynska</t>
+  </si>
+  <si>
+    <t>Kard..St. Wyszyńskiego 23 88-170 Pakosc</t>
+  </si>
+  <si>
+    <t>Filip Majka</t>
+  </si>
+  <si>
+    <t>Miechowity, 10/69 31-469 Kraków</t>
+  </si>
+  <si>
+    <t>Artur Węsek</t>
+  </si>
+  <si>
+    <t>KLONOWA, 9 27-400 OSTROWIEC SW</t>
+  </si>
+  <si>
+    <t>Łukasz Jarzynka</t>
+  </si>
+  <si>
+    <t>Toruńska 11/2 87-410 Kowalewo Pomorskie</t>
+  </si>
+  <si>
+    <t>Dariusz Michalski</t>
+  </si>
+  <si>
+    <t>Szewska 18 61-760 Poznań</t>
+  </si>
+  <si>
+    <t>ADAM Chyliński</t>
+  </si>
+  <si>
+    <t>Tuszyńska 133c 95-020 Wiśniowa Góra</t>
+  </si>
+  <si>
+    <t>Ewelina Piwoda</t>
+  </si>
+  <si>
+    <t>Ireny Sendlerowej 1/8 66-400 Gorzów Wlkp</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>AGATA SOWA</t>
+  </si>
+  <si>
+    <t>TYSIĄCLECIA 24 13-203 STARE DLUTOWO</t>
+  </si>
+  <si>
+    <t>Sławomir Kaczmarski</t>
+  </si>
+  <si>
+    <t>Makowisko 69 37-500 Jarosław</t>
+  </si>
+  <si>
+    <t>Piotr Goldryng</t>
+  </si>
+  <si>
+    <t>Jana Pawła II 28 05-205 Nowy Kraszew</t>
+  </si>
+  <si>
+    <t>jerzy jasiński</t>
+  </si>
+  <si>
+    <t>zielona 2/9 59-220 legnica</t>
+  </si>
+  <si>
+    <t>Iwona Michałowska</t>
+  </si>
+  <si>
+    <t>Al.Solidarnosci 36 61-696 Poznań</t>
+  </si>
+  <si>
+    <t>Weronika Kurneta</t>
+  </si>
+  <si>
+    <t>ul.M. Skłodowskiej-Curie 3a 32-566 Alwernia</t>
+  </si>
+  <si>
+    <t>Michał Kania</t>
+  </si>
+  <si>
+    <t>Lednica Górna 263 32-020 Lednica Górna</t>
+  </si>
+  <si>
+    <t>Łukasz Dutkowski</t>
+  </si>
+  <si>
+    <t>Jastrzębowskiego 24 02-786 Warszawa</t>
+  </si>
+  <si>
+    <t>Stanisława Bryzik</t>
+  </si>
+  <si>
+    <t>Ścinawka 50 57-409 Ścinawka Dolna</t>
+  </si>
+  <si>
+    <t>Małgorzata Jaśkiewicz</t>
+  </si>
+  <si>
+    <t>ul, Szeroka 25 b 05-075 Warszawa Wesoła</t>
+  </si>
+  <si>
+    <t>Oles Polozov</t>
+  </si>
+  <si>
+    <t>komuny paryskiej 90 A m5 50-545 Wroclaw</t>
+  </si>
+  <si>
+    <t>Angelika Stasik</t>
+  </si>
+  <si>
+    <t>Krokusowa 1/11 30-430 Kraków</t>
+  </si>
+  <si>
+    <t>Anna Mrówka</t>
+  </si>
+  <si>
+    <t>Żwirki i Wigury 9 32-340 Wolbrom</t>
+  </si>
+  <si>
+    <t>Mariola Tolarz</t>
+  </si>
+  <si>
+    <t>Dworcowa 93b 44-352 Czyżowice</t>
+  </si>
+  <si>
+    <t>Sandra Redo</t>
+  </si>
+  <si>
+    <t>Dywizjonu 303 1/8 80-482 Gdańsk</t>
+  </si>
+  <si>
+    <t>Przemysław Golewski</t>
+  </si>
+  <si>
+    <t>Bluszczowa 6/53 20-224 Lublin</t>
+  </si>
+  <si>
+    <t>Michał Śnieciński</t>
+  </si>
+  <si>
+    <t>Ul. Żwirki i Wigury 30a/42 42-500 Będzin</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>Łukasz Suska</t>
+  </si>
+  <si>
+    <t>Dudowizna 40A 07-308 Poręba</t>
+  </si>
+  <si>
+    <t>Damian Nosal</t>
+  </si>
+  <si>
+    <t>Kurów 84 34-233 Hucisko</t>
+  </si>
+  <si>
+    <t>jadwiga gesella-juscińska</t>
+  </si>
+  <si>
+    <t>ul.milicka 51a 51-126 Wrocław</t>
+  </si>
+  <si>
+    <t>Katarzyna Rajewska</t>
+  </si>
+  <si>
+    <t>Rakowo 52 09-460 Mała Wieś</t>
+  </si>
+  <si>
+    <t>Marcin Marczewski</t>
+  </si>
+  <si>
+    <t>Kosciuszki 83/3 84-360 Łeba</t>
+  </si>
+  <si>
+    <t>Paulina Jochacy</t>
+  </si>
+  <si>
+    <t>Józefa Kreta 5 43-450 Ustroń</t>
+  </si>
+  <si>
+    <t>Małgorzata Ankiewicz</t>
+  </si>
+  <si>
+    <t>Obrońców Wybrzeża 6d 14 80-398 Gdańsk</t>
+  </si>
+  <si>
+    <t>Krzysztof Chromik</t>
+  </si>
+  <si>
+    <t>ul. Katedralna 23B 08-110 Siedlce</t>
+  </si>
+  <si>
+    <t>Jadwiga  Pątkowska</t>
+  </si>
+  <si>
+    <t>Nowa Wioska 22/2 82-520 Nowa Wioska</t>
+  </si>
+  <si>
+    <t>Agnieszka Urbańska-Zabłocka</t>
+  </si>
+  <si>
+    <t>Wiejska 23 A 66-431 Janczewo</t>
+  </si>
+  <si>
+    <t>Sylwia Wilk</t>
+  </si>
+  <si>
+    <t>Golonoska 59 42-523 Dąbrowa Górnicza</t>
+  </si>
+  <si>
+    <t>Katarzyna Miszczak</t>
+  </si>
+  <si>
+    <t>ul. Pod Skarpą 2 86-200 Chełmno</t>
+  </si>
+  <si>
+    <t>Sławomir Molik</t>
+  </si>
+  <si>
+    <t>Racławice 282 32-049 Przeginia</t>
+  </si>
+  <si>
+    <t>Marta Wasilewska</t>
+  </si>
+  <si>
+    <t>Ul.Żeromskiego 9m2 11-600 Węgorzewo</t>
+  </si>
+  <si>
+    <t>Renata Wołek</t>
+  </si>
+  <si>
+    <t>ul. 1 Sierpnia 12 37-450 Stalowa Wola</t>
+  </si>
+  <si>
+    <t>Damian Ciołkowski</t>
+  </si>
+  <si>
+    <t>Władysława Jagiełły 9C 41-707 Ruda Śląska</t>
+  </si>
+  <si>
+    <t>rafał krzemiński</t>
+  </si>
+  <si>
+    <t>Akacjowa 57a 27-400 ostrowiec świętokrzyski</t>
+  </si>
+  <si>
+    <t>Jacek Hodyna</t>
+  </si>
+  <si>
+    <t>Sybilli9m15 01-742 Warszawa</t>
+  </si>
+  <si>
+    <t>Marzena Adamowska</t>
+  </si>
+  <si>
+    <t>dylewo17a 87-500 rypin</t>
+  </si>
+  <si>
+    <t>Paweł Kuna</t>
+  </si>
+  <si>
+    <t>Zachodnia 17 23-213 Zakrzówek</t>
+  </si>
+  <si>
+    <t>Monika Meisner</t>
+  </si>
+  <si>
+    <t>Ul.Krasinskiego 16 41-710 Ruda Śląska</t>
+  </si>
+  <si>
+    <t>Adam Kot</t>
+  </si>
+  <si>
+    <t>ul. Zielona 1B 44-325 Mszana</t>
+  </si>
+  <si>
+    <t>Yevhen Chepurnyi</t>
+  </si>
+  <si>
+    <t>Chmielna 73 C 08-801 Warszawa</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>Krystyna Kamińska</t>
+  </si>
+  <si>
+    <t>Krzeczyn 28 56-400 Krzeczyn gm Olesnica</t>
+  </si>
+  <si>
+    <t>Alicja Gut</t>
+  </si>
+  <si>
+    <t>Sloneczna, 7 58-379 Czarny Bór</t>
+  </si>
+  <si>
+    <t>Marysia Stark</t>
+  </si>
+  <si>
+    <t>Niedamowo 51 83-423 Wielki Klincz</t>
+  </si>
+  <si>
+    <t>Aleksandra Zadorożna</t>
+  </si>
+  <si>
+    <t>Sportowa 11/3 76-251 Sycewice</t>
+  </si>
+  <si>
+    <t>Bernadeta Skrzypczynska</t>
+  </si>
+  <si>
+    <t>Wakacyjna 6/2 Struga Park 3 Przewłoka 76-270 Przewłoka-Ustka</t>
+  </si>
+  <si>
+    <t>Halyna Kostiv</t>
+  </si>
+  <si>
+    <t>Oliwkowa,8 45-940 Opole</t>
+  </si>
+  <si>
+    <t>Monika Chaba</t>
+  </si>
+  <si>
+    <t>Hrubieszowska 14/5 71-047 Szczecin</t>
+  </si>
+  <si>
+    <t>Adam Szlaga</t>
+  </si>
+  <si>
+    <t>Pszenna 2A 84-123 Połchowo</t>
+  </si>
+  <si>
+    <t>Karol Kuś</t>
+  </si>
+  <si>
+    <t>Brzeźno 27 87-600 Lipno</t>
   </si>
 </sst>
 </file>
@@ -360,51 +1455,4511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>18226848</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>18229237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>18234690</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>18240192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>18241552</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>18246257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>18252863</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>18261249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>18263537</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>18267694</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>18271354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>18275301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>18276650</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>18283349</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>18286897</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>18286900</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>18289890</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18299454</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18310000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>18310440</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>18310442</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>18318255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>18318253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>18323985</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>18324437</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>18325854</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>18328839</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>18336592</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>18336900</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>18346052</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>18346578</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>18352113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>18362694</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>18363621</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>18366409</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>18380512</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>18381935</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>18381937</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>18386304</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>18405469</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>18422510</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>18424957</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>18434537</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>18445716</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>18447436</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>18454354</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>18456036</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>18456035</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>18468821</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>18475438</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>18476205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>18477068</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>18477070</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>18482527</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>18493227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>18496144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>18509676</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>18513862</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>18516475</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>18518222</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>18519950</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>18520801</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>18525869</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>18526415</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>18535093</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>18540532</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>18559335</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>18576328</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>18585054</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>18586436</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>18607620</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>18619656</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>18621396</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" t="s">
+        <v>163</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>18623519</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>18624558</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>18625602</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>18627087</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>18631908</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>18634297</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>18636376</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>18642052</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>18650040</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>18650635</v>
+      </c>
+      <c r="B84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>18659447</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>18661912</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>18664877</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>18672009</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>18685203</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" t="s">
+        <v>194</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>18687343</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>196</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>18694240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>18696791</v>
+      </c>
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>18703930</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" t="s">
+        <v>202</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>18707733</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" t="s">
+        <v>204</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>18713172</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" t="s">
+        <v>207</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>18726389</v>
+      </c>
+      <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" t="s">
+        <v>209</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>18738571</v>
+      </c>
+      <c r="B97" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>210</v>
+      </c>
+      <c r="E97" t="s">
+        <v>211</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>18745509</v>
+      </c>
+      <c r="B98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>18746251</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" t="s">
+        <v>215</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>18747732</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
+        <v>217</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>18755902</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" t="s">
+        <v>220</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>18763768</v>
+      </c>
+      <c r="B102" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" t="s">
+        <v>222</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>18791063</v>
+      </c>
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>224</v>
+      </c>
+      <c r="E103" t="s">
+        <v>225</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>18801395</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>226</v>
+      </c>
+      <c r="E104" t="s">
+        <v>227</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>18802814</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E105" t="s">
+        <v>229</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>18802815</v>
+      </c>
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>230</v>
+      </c>
+      <c r="E106" t="s">
+        <v>231</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>18805131</v>
+      </c>
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>18823367</v>
+      </c>
+      <c r="B108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>18830387</v>
+      </c>
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" t="s">
+        <v>237</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>18834376</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>239</v>
+      </c>
+      <c r="E110" t="s">
+        <v>240</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>18837294</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" t="s">
+        <v>242</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>18855226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" t="s">
+        <v>244</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>18858388</v>
+      </c>
+      <c r="B113" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>245</v>
+      </c>
+      <c r="E113" t="s">
+        <v>246</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>18858385</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" t="s">
+        <v>248</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>18873127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>249</v>
+      </c>
+      <c r="E115" t="s">
+        <v>250</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>18880089</v>
+      </c>
+      <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>251</v>
+      </c>
+      <c r="E116" t="s">
+        <v>252</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>18883873</v>
+      </c>
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" t="s">
+        <v>254</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>18887493</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>255</v>
+      </c>
+      <c r="E118" t="s">
+        <v>256</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>18890679</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>257</v>
+      </c>
+      <c r="E119" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>18893311</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" t="s">
+        <v>260</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>18894163</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" t="s">
+        <v>262</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>18898663</v>
+      </c>
+      <c r="B122" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" t="s">
+        <v>264</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>18901710</v>
+      </c>
+      <c r="B123" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>265</v>
+      </c>
+      <c r="E123" t="s">
+        <v>266</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>18902400</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>267</v>
+      </c>
+      <c r="E124" t="s">
+        <v>268</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>18908712</v>
+      </c>
+      <c r="B125" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>270</v>
+      </c>
+      <c r="E125" t="s">
+        <v>271</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>18911787</v>
+      </c>
+      <c r="B126" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>272</v>
+      </c>
+      <c r="E126" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>18913352</v>
+      </c>
+      <c r="B127" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" t="s">
+        <v>275</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>18921557</v>
+      </c>
+      <c r="B128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>276</v>
+      </c>
+      <c r="E128" t="s">
+        <v>277</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>18933831</v>
+      </c>
+      <c r="B129" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>278</v>
+      </c>
+      <c r="E129" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>18941820</v>
+      </c>
+      <c r="B130" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" t="s">
+        <v>281</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>18943042</v>
+      </c>
+      <c r="B131" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>282</v>
+      </c>
+      <c r="E131" t="s">
+        <v>283</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>18944239</v>
+      </c>
+      <c r="B132" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>284</v>
+      </c>
+      <c r="E132" t="s">
+        <v>285</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>18949093</v>
+      </c>
+      <c r="B133" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" t="s">
+        <v>287</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>18950276</v>
+      </c>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>288</v>
+      </c>
+      <c r="E134" t="s">
+        <v>289</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>18955906</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>290</v>
+      </c>
+      <c r="E135" t="s">
+        <v>291</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>18956543</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>292</v>
+      </c>
+      <c r="E136" t="s">
+        <v>293</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>18961592</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>294</v>
+      </c>
+      <c r="E137" t="s">
+        <v>295</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>18971225</v>
+      </c>
+      <c r="B138" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>296</v>
+      </c>
+      <c r="E138" t="s">
+        <v>297</v>
+      </c>
+      <c r="F138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>18972832</v>
+      </c>
+      <c r="B139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>298</v>
+      </c>
+      <c r="E139" t="s">
+        <v>299</v>
+      </c>
+      <c r="F139" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>18975040</v>
+      </c>
+      <c r="B140" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B1:B4)</f>
-        <v>0</v>
+      <c r="E140" t="s">
+        <v>301</v>
+      </c>
+      <c r="F140" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>18980141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>269</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s">
+        <v>302</v>
+      </c>
+      <c r="E141" t="s">
+        <v>303</v>
+      </c>
+      <c r="F141" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>18984096</v>
+      </c>
+      <c r="B142" t="s">
+        <v>304</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>305</v>
+      </c>
+      <c r="E142" t="s">
+        <v>306</v>
+      </c>
+      <c r="F142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>18989204</v>
+      </c>
+      <c r="B143" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>307</v>
+      </c>
+      <c r="E143" t="s">
+        <v>308</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>18990569</v>
+      </c>
+      <c r="B144" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>309</v>
+      </c>
+      <c r="E144" t="s">
+        <v>310</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>18993520</v>
+      </c>
+      <c r="B145" t="s">
+        <v>304</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>311</v>
+      </c>
+      <c r="E145" t="s">
+        <v>312</v>
+      </c>
+      <c r="F145" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>18996016</v>
+      </c>
+      <c r="B146" t="s">
+        <v>304</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>313</v>
+      </c>
+      <c r="E146" t="s">
+        <v>314</v>
+      </c>
+      <c r="F146" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>18997732</v>
+      </c>
+      <c r="B147" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>315</v>
+      </c>
+      <c r="E147" t="s">
+        <v>316</v>
+      </c>
+      <c r="F147" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>18997731</v>
+      </c>
+      <c r="B148" t="s">
+        <v>304</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>317</v>
+      </c>
+      <c r="E148" t="s">
+        <v>318</v>
+      </c>
+      <c r="F148" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>18998447</v>
+      </c>
+      <c r="B149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>319</v>
+      </c>
+      <c r="E149" t="s">
+        <v>320</v>
+      </c>
+      <c r="F149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>19001725</v>
+      </c>
+      <c r="B150" t="s">
+        <v>304</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>321</v>
+      </c>
+      <c r="E150" t="s">
+        <v>322</v>
+      </c>
+      <c r="F150" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>19004035</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>323</v>
+      </c>
+      <c r="E151" t="s">
+        <v>324</v>
+      </c>
+      <c r="F151" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>19004785</v>
+      </c>
+      <c r="B152" t="s">
+        <v>304</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="E152" t="s">
+        <v>326</v>
+      </c>
+      <c r="F152" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>19008280</v>
+      </c>
+      <c r="B153" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>327</v>
+      </c>
+      <c r="E153" t="s">
+        <v>328</v>
+      </c>
+      <c r="F153" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>19015490</v>
+      </c>
+      <c r="B154" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>329</v>
+      </c>
+      <c r="E154" t="s">
+        <v>330</v>
+      </c>
+      <c r="F154" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>19018424</v>
+      </c>
+      <c r="B155" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>331</v>
+      </c>
+      <c r="E155" t="s">
+        <v>332</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>19018425</v>
+      </c>
+      <c r="B156" t="s">
+        <v>304</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>333</v>
+      </c>
+      <c r="E156" t="s">
+        <v>334</v>
+      </c>
+      <c r="F156" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>19023656</v>
+      </c>
+      <c r="B157" t="s">
+        <v>304</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>335</v>
+      </c>
+      <c r="E157" t="s">
+        <v>336</v>
+      </c>
+      <c r="F157" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>19030864</v>
+      </c>
+      <c r="B158" t="s">
+        <v>304</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>337</v>
+      </c>
+      <c r="E158" t="s">
+        <v>338</v>
+      </c>
+      <c r="F158" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>19032043</v>
+      </c>
+      <c r="B159" t="s">
+        <v>304</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>339</v>
+      </c>
+      <c r="E159" t="s">
+        <v>340</v>
+      </c>
+      <c r="F159" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>19033402</v>
+      </c>
+      <c r="B160" t="s">
+        <v>304</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" t="s">
+        <v>341</v>
+      </c>
+      <c r="E160" t="s">
+        <v>342</v>
+      </c>
+      <c r="F160" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>19041625</v>
+      </c>
+      <c r="B161" t="s">
+        <v>304</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" t="s">
+        <v>343</v>
+      </c>
+      <c r="E161" t="s">
+        <v>344</v>
+      </c>
+      <c r="F161" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>19045066</v>
+      </c>
+      <c r="B162" t="s">
+        <v>304</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>345</v>
+      </c>
+      <c r="E162" t="s">
+        <v>346</v>
+      </c>
+      <c r="F162" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>19045705</v>
+      </c>
+      <c r="B163" t="s">
+        <v>304</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>347</v>
+      </c>
+      <c r="E163" t="s">
+        <v>348</v>
+      </c>
+      <c r="F163" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>19050067</v>
+      </c>
+      <c r="B164" t="s">
+        <v>304</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>349</v>
+      </c>
+      <c r="E164" t="s">
+        <v>350</v>
+      </c>
+      <c r="F164" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>19052230</v>
+      </c>
+      <c r="B165" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>352</v>
+      </c>
+      <c r="E165" t="s">
+        <v>353</v>
+      </c>
+      <c r="F165" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>19058779</v>
+      </c>
+      <c r="B166" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>354</v>
+      </c>
+      <c r="E166" t="s">
+        <v>355</v>
+      </c>
+      <c r="F166" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>19060708</v>
+      </c>
+      <c r="B167" t="s">
+        <v>351</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>356</v>
+      </c>
+      <c r="E167" t="s">
+        <v>357</v>
+      </c>
+      <c r="F167" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>19063543</v>
+      </c>
+      <c r="B168" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" t="s">
+        <v>359</v>
+      </c>
+      <c r="F168" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>19069416</v>
+      </c>
+      <c r="B169" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>360</v>
+      </c>
+      <c r="E169" t="s">
+        <v>361</v>
+      </c>
+      <c r="F169" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>19071412</v>
+      </c>
+      <c r="B170" t="s">
+        <v>351</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>362</v>
+      </c>
+      <c r="E170" t="s">
+        <v>363</v>
+      </c>
+      <c r="F170" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>19075794</v>
+      </c>
+      <c r="B171" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>364</v>
+      </c>
+      <c r="E171" t="s">
+        <v>365</v>
+      </c>
+      <c r="F171" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>19084079</v>
+      </c>
+      <c r="B172" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>366</v>
+      </c>
+      <c r="E172" t="s">
+        <v>367</v>
+      </c>
+      <c r="F172" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>19098814</v>
+      </c>
+      <c r="B173" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>368</v>
+      </c>
+      <c r="E173" t="s">
+        <v>369</v>
+      </c>
+      <c r="F173" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
